--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd9-L1cam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd9-L1cam.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>87.667552</v>
+        <v>57.48524866666667</v>
       </c>
       <c r="H2">
-        <v>263.002656</v>
+        <v>172.455746</v>
       </c>
       <c r="I2">
-        <v>0.3606416352150456</v>
+        <v>0.2249897472933344</v>
       </c>
       <c r="J2">
-        <v>0.3606416352150456</v>
+        <v>0.2249897472933344</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="N2">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="O2">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="P2">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="Q2">
-        <v>1581.994260287242</v>
+        <v>279.4905580488964</v>
       </c>
       <c r="R2">
-        <v>14237.94834258518</v>
+        <v>2515.415022440068</v>
       </c>
       <c r="S2">
-        <v>0.2451627314340651</v>
+        <v>0.08989799506608101</v>
       </c>
       <c r="T2">
-        <v>0.2451627314340651</v>
+        <v>0.089897995066081</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>87.667552</v>
+        <v>57.48524866666667</v>
       </c>
       <c r="H3">
-        <v>263.002656</v>
+        <v>172.455746</v>
       </c>
       <c r="I3">
-        <v>0.3606416352150456</v>
+        <v>0.2249897472933344</v>
       </c>
       <c r="J3">
-        <v>0.3606416352150456</v>
+        <v>0.2249897472933344</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.800598</v>
       </c>
       <c r="O3">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="P3">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="Q3">
-        <v>52.61800626536534</v>
+        <v>34.50260792623423</v>
       </c>
       <c r="R3">
-        <v>473.5620563882881</v>
+        <v>310.5234713361081</v>
       </c>
       <c r="S3">
-        <v>0.008154248382854102</v>
+        <v>0.01109774619497841</v>
       </c>
       <c r="T3">
-        <v>0.008154248382854102</v>
+        <v>0.01109774619497841</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>87.667552</v>
+        <v>57.48524866666667</v>
       </c>
       <c r="H4">
-        <v>263.002656</v>
+        <v>172.455746</v>
       </c>
       <c r="I4">
-        <v>0.3606416352150456</v>
+        <v>0.2249897472933344</v>
       </c>
       <c r="J4">
-        <v>0.3606416352150456</v>
+        <v>0.2249897472933344</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="N4">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="O4">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="P4">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="Q4">
-        <v>281.3825381695253</v>
+        <v>241.8263189312442</v>
       </c>
       <c r="R4">
-        <v>2532.442843525728</v>
+        <v>2176.436870381198</v>
       </c>
       <c r="S4">
-        <v>0.04360604419826745</v>
+        <v>0.07778331181522848</v>
       </c>
       <c r="T4">
-        <v>0.04360604419826744</v>
+        <v>0.07778331181522846</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>87.667552</v>
+        <v>57.48524866666667</v>
       </c>
       <c r="H5">
-        <v>263.002656</v>
+        <v>172.455746</v>
       </c>
       <c r="I5">
-        <v>0.3606416352150456</v>
+        <v>0.2249897472933344</v>
       </c>
       <c r="J5">
-        <v>0.3606416352150456</v>
+        <v>0.2249897472933344</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="N5">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="O5">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="P5">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="Q5">
-        <v>411.1655821503253</v>
+        <v>143.6678616142165</v>
       </c>
       <c r="R5">
-        <v>3700.490239352928</v>
+        <v>1293.010754527948</v>
       </c>
       <c r="S5">
-        <v>0.06371861119985894</v>
+        <v>0.04621069421704651</v>
       </c>
       <c r="T5">
-        <v>0.06371861119985894</v>
+        <v>0.0462106942170465</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>72.97955566666667</v>
+        <v>72.97955566666666</v>
       </c>
       <c r="H6">
         <v>218.938667</v>
       </c>
       <c r="I6">
-        <v>0.3002190170987564</v>
+        <v>0.2856324390668287</v>
       </c>
       <c r="J6">
-        <v>0.3002190170987564</v>
+        <v>0.2856324390668287</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="N6">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="O6">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="P6">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="Q6">
-        <v>1316.943789909635</v>
+        <v>354.8231452856984</v>
       </c>
       <c r="R6">
-        <v>11852.49410918671</v>
+        <v>3193.408307571285</v>
       </c>
       <c r="S6">
-        <v>0.2040876789406006</v>
+        <v>0.1141286832260164</v>
       </c>
       <c r="T6">
-        <v>0.2040876789406006</v>
+        <v>0.1141286832260164</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>72.97955566666667</v>
+        <v>72.97955566666666</v>
       </c>
       <c r="H7">
         <v>218.938667</v>
       </c>
       <c r="I7">
-        <v>0.3002190170987564</v>
+        <v>0.2856324390668287</v>
       </c>
       <c r="J7">
-        <v>0.3002190170987564</v>
+        <v>0.2856324390668287</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>1.800598</v>
       </c>
       <c r="O7">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="P7">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="Q7">
-        <v>43.80228065809623</v>
+        <v>43.80228065809622</v>
       </c>
       <c r="R7">
         <v>394.220525922866</v>
       </c>
       <c r="S7">
-        <v>0.006788069362040903</v>
+        <v>0.01408898117336661</v>
       </c>
       <c r="T7">
-        <v>0.006788069362040902</v>
+        <v>0.01408898117336661</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>72.97955566666667</v>
+        <v>72.97955566666666</v>
       </c>
       <c r="H8">
         <v>218.938667</v>
       </c>
       <c r="I8">
-        <v>0.3002190170987564</v>
+        <v>0.2856324390668287</v>
       </c>
       <c r="J8">
-        <v>0.3002190170987564</v>
+        <v>0.2856324390668287</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="N8">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="O8">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="P8">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="Q8">
-        <v>234.2391470902579</v>
+        <v>307.0070620454911</v>
       </c>
       <c r="R8">
-        <v>2108.152323812321</v>
+        <v>2763.06355840942</v>
       </c>
       <c r="S8">
-        <v>0.03630020067140219</v>
+        <v>0.09874866450475629</v>
       </c>
       <c r="T8">
-        <v>0.03630020067140219</v>
+        <v>0.09874866450475629</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>72.97955566666667</v>
+        <v>72.97955566666666</v>
       </c>
       <c r="H9">
         <v>218.938667</v>
       </c>
       <c r="I9">
-        <v>0.3002190170987564</v>
+        <v>0.2856324390668287</v>
       </c>
       <c r="J9">
-        <v>0.3002190170987564</v>
+        <v>0.2856324390668287</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="N9">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="O9">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="P9">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="Q9">
-        <v>342.2780812991912</v>
+        <v>182.3914299298384</v>
       </c>
       <c r="R9">
-        <v>3080.502731692721</v>
+        <v>1641.522869368546</v>
       </c>
       <c r="S9">
-        <v>0.05304306812471274</v>
+        <v>0.05866611016268933</v>
       </c>
       <c r="T9">
-        <v>0.05304306812471274</v>
+        <v>0.05866611016268933</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.06943633333334</v>
+        <v>50.94830300000001</v>
       </c>
       <c r="H10">
-        <v>123.208309</v>
+        <v>152.844909</v>
       </c>
       <c r="I10">
-        <v>0.1689490391680327</v>
+        <v>0.1994049966359642</v>
       </c>
       <c r="J10">
-        <v>0.1689490391680327</v>
+        <v>0.1994049966359642</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="N10">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="O10">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="P10">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="Q10">
-        <v>741.1135713309945</v>
+        <v>247.7082376329914</v>
       </c>
       <c r="R10">
-        <v>6670.022141978951</v>
+        <v>2229.374138696922</v>
       </c>
       <c r="S10">
-        <v>0.1148508765242748</v>
+        <v>0.07967522795765589</v>
       </c>
       <c r="T10">
-        <v>0.1148508765242748</v>
+        <v>0.07967522795765589</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>41.06943633333334</v>
+        <v>50.94830300000001</v>
       </c>
       <c r="H11">
-        <v>123.208309</v>
+        <v>152.844909</v>
       </c>
       <c r="I11">
-        <v>0.1689490391680327</v>
+        <v>0.1994049966359642</v>
       </c>
       <c r="J11">
-        <v>0.1689490391680327</v>
+        <v>0.1994049966359642</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.800598</v>
       </c>
       <c r="O11">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="P11">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="Q11">
-        <v>24.64984830764245</v>
+        <v>30.57913749506468</v>
       </c>
       <c r="R11">
-        <v>221.848634768782</v>
+        <v>275.2122374555821</v>
       </c>
       <c r="S11">
-        <v>0.003820003834552297</v>
+        <v>0.00983576393723971</v>
       </c>
       <c r="T11">
-        <v>0.003820003834552297</v>
+        <v>0.009835763937239709</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>41.06943633333334</v>
+        <v>50.94830300000001</v>
       </c>
       <c r="H12">
-        <v>123.208309</v>
+        <v>152.844909</v>
       </c>
       <c r="I12">
-        <v>0.1689490391680327</v>
+        <v>0.1994049966359642</v>
       </c>
       <c r="J12">
-        <v>0.1689490391680327</v>
+        <v>0.1994049966359642</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="N12">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="O12">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="P12">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="Q12">
-        <v>131.8186942948408</v>
+        <v>214.3269944212297</v>
       </c>
       <c r="R12">
-        <v>1186.368248653567</v>
+        <v>1928.942949791067</v>
       </c>
       <c r="S12">
-        <v>0.02042803312164191</v>
+        <v>0.06893816814962618</v>
       </c>
       <c r="T12">
-        <v>0.02042803312164191</v>
+        <v>0.06893816814962618</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>41.06943633333334</v>
+        <v>50.94830300000001</v>
       </c>
       <c r="H13">
-        <v>123.208309</v>
+        <v>152.844909</v>
       </c>
       <c r="I13">
-        <v>0.1689490391680327</v>
+        <v>0.1994049966359642</v>
       </c>
       <c r="J13">
-        <v>0.1689490391680327</v>
+        <v>0.1994049966359642</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="N13">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="O13">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="P13">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="Q13">
-        <v>192.6178878427075</v>
+        <v>127.3306442027714</v>
       </c>
       <c r="R13">
-        <v>1733.560990584367</v>
+        <v>1145.975797824942</v>
       </c>
       <c r="S13">
-        <v>0.02985012568756371</v>
+        <v>0.04095583659144243</v>
       </c>
       <c r="T13">
-        <v>0.02985012568756371</v>
+        <v>0.04095583659144243</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>41.37117366666666</v>
+        <v>74.08852933333333</v>
       </c>
       <c r="H14">
-        <v>124.113521</v>
+        <v>222.265588</v>
       </c>
       <c r="I14">
-        <v>0.1701903085181653</v>
+        <v>0.2899728170038728</v>
       </c>
       <c r="J14">
-        <v>0.1701903085181653</v>
+        <v>0.2899728170038728</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="N14">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="O14">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="P14">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="Q14">
-        <v>746.558536070602</v>
+        <v>360.2149227616115</v>
       </c>
       <c r="R14">
-        <v>6719.026824635419</v>
+        <v>3241.934304854503</v>
       </c>
       <c r="S14">
-        <v>0.1156946864303119</v>
+        <v>0.1158629456938106</v>
       </c>
       <c r="T14">
-        <v>0.1156946864303119</v>
+        <v>0.1158629456938106</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>41.37117366666666</v>
+        <v>74.08852933333333</v>
       </c>
       <c r="H15">
-        <v>124.113521</v>
+        <v>222.265588</v>
       </c>
       <c r="I15">
-        <v>0.1701903085181653</v>
+        <v>0.2899728170038728</v>
       </c>
       <c r="J15">
-        <v>0.1701903085181653</v>
+        <v>0.2899728170038728</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.800598</v>
       </c>
       <c r="O15">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="P15">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="Q15">
-        <v>24.83095085395089</v>
+        <v>44.46788591351378</v>
       </c>
       <c r="R15">
-        <v>223.478557685558</v>
+        <v>400.210973221624</v>
       </c>
       <c r="S15">
-        <v>0.003848069419894294</v>
+        <v>0.01430307276338382</v>
       </c>
       <c r="T15">
-        <v>0.003848069419894294</v>
+        <v>0.01430307276338382</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>41.37117366666666</v>
+        <v>74.08852933333333</v>
       </c>
       <c r="H16">
-        <v>124.113521</v>
+        <v>222.265588</v>
       </c>
       <c r="I16">
-        <v>0.1701903085181653</v>
+        <v>0.2899728170038728</v>
       </c>
       <c r="J16">
-        <v>0.1701903085181653</v>
+        <v>0.2899728170038728</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="N16">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="O16">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="P16">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="Q16">
-        <v>132.7871668343025</v>
+        <v>311.6722418232937</v>
       </c>
       <c r="R16">
-        <v>1195.084501508723</v>
+        <v>2805.050176409643</v>
       </c>
       <c r="S16">
-        <v>0.02057811797280326</v>
+        <v>0.1002492171945323</v>
       </c>
       <c r="T16">
-        <v>0.02057811797280326</v>
+        <v>0.1002492171945323</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>41.37117366666666</v>
+        <v>74.08852933333333</v>
       </c>
       <c r="H17">
-        <v>124.113521</v>
+        <v>222.265588</v>
       </c>
       <c r="I17">
-        <v>0.1701903085181653</v>
+        <v>0.2899728170038728</v>
       </c>
       <c r="J17">
-        <v>0.1701903085181653</v>
+        <v>0.2899728170038728</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="N17">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="O17">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="P17">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="Q17">
-        <v>194.0330523304359</v>
+        <v>185.1629909645715</v>
       </c>
       <c r="R17">
-        <v>1746.297470973923</v>
+        <v>1666.466918681144</v>
       </c>
       <c r="S17">
-        <v>0.0300694346951558</v>
+        <v>0.05955758135214607</v>
       </c>
       <c r="T17">
-        <v>0.0300694346951558</v>
+        <v>0.05955758135214607</v>
       </c>
     </row>
   </sheetData>
